--- a/public/templates/import_template.xlsx
+++ b/public/templates/import_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTG_APP\www\Fashion_Asia_Limited\FAL_Commercial\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop_file\FAL Commercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95018D1-1759-400E-9F46-9F25BD7BD79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5753EB5-4A85-4F9F-8120-D6CC8CCB169E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,18 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>BTB L/C NO.</t>
-  </si>
-  <si>
-    <t>Fabric (Value)</t>
-  </si>
-  <si>
-    <t>Accessories (Value)</t>
-  </si>
-  <si>
-    <t>Printing/Embroidery (Value)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
   <si>
     <t>Fabric Qty in Kgs</t>
@@ -63,26 +57,37 @@
     <t>M.N. DYEING,PRINTING &amp; WASHING MILLS LTD.</t>
   </si>
   <si>
-    <t xml:space="preserve">DATE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accessories (qty) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Printing/Embroidery (qty) </t>
+    <t>BTB LC NO.</t>
+  </si>
+  <si>
+    <t>Fabric Value</t>
+  </si>
+  <si>
+    <t>Accessories Value</t>
+  </si>
+  <si>
+    <t>Accessories qty</t>
+  </si>
+  <si>
+    <t>Printing Embroidery qty</t>
+  </si>
+  <si>
+    <t>Printing Embroidery Value</t>
+  </si>
+  <si>
+    <t>HUZHOU XINWEIDA TEXTILE CO., LTD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,19 +103,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="6"/>
-      <color rgb="FF494949"/>
-      <name val="Courier New"/>
-      <family val="3"/>
+      <sz val="10"/>
+      <name val="Calibri Light"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri Light"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,8 +145,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -132,41 +166,260 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -445,107 +698,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="12.90625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.08984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.81640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="23.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="9">
+        <v>45144</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="15">
+        <v>164086.76999999999</v>
+      </c>
+      <c r="E2" s="24">
+        <v>4293.5</v>
+      </c>
+      <c r="F2" s="19">
+        <v>20454.28</v>
+      </c>
+      <c r="G2" s="20">
+        <v>3166.64</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
-        <v>45144</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B3" s="12">
+        <v>45166</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7">
-        <v>164086.76999999999</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7">
-        <v>20454.28</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2">
-        <v>45166</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="D3" s="16">
         <v>17884.3</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7">
+      <c r="E3" s="24">
+        <v>8947.7199999999993</v>
+      </c>
+      <c r="F3" s="20">
         <v>3166.64</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="20">
+        <v>3166.64</v>
+      </c>
+      <c r="I3" s="24">
+        <v>1798.55</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="A4" s="22">
+        <v>155924050006</v>
+      </c>
+      <c r="B4" s="23">
+        <v>45323</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="15">
+        <v>8318.17</v>
+      </c>
+      <c r="E4" s="24">
+        <v>1798.55</v>
+      </c>
+      <c r="F4" s="20">
+        <v>3166.64</v>
+      </c>
+      <c r="G4" s="20">
+        <v>3166.64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="22">
+        <v>155924050006</v>
+      </c>
+      <c r="B5" s="23">
+        <v>45384</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="16">
+        <v>4520.6400000000003</v>
+      </c>
+      <c r="E5" s="24">
+        <v>8898.1200000000008</v>
+      </c>
+      <c r="F5" s="20">
+        <v>3166.64</v>
+      </c>
+      <c r="H5" s="20">
+        <v>3166.64</v>
+      </c>
+      <c r="I5" s="24">
+        <v>1798.55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="22">
+        <v>155924050006</v>
+      </c>
+      <c r="B6" s="23">
+        <v>45323</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="15">
+        <v>723.11</v>
+      </c>
+      <c r="E6" s="24">
+        <v>9153</v>
+      </c>
+      <c r="F6" s="20">
+        <v>3166.64</v>
+      </c>
+      <c r="G6" s="20">
+        <v>3166.64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E7" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/templates/import_template.xlsx
+++ b/public/templates/import_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop_file\FAL Commercial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTG_APP\www\Fashion_Asia_Limited\FAL_Commercial\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5753EB5-4A85-4F9F-8120-D6CC8CCB169E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31FA13A-3E71-4A8D-B913-B90F5FBC92CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2620" yWindow="2620" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,183 +158,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -358,64 +187,47 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -698,81 +510,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.08984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.81640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="16.7265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="23.7265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="7"/>
+    <col min="1" max="1" width="12.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="23.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="12">
         <v>45144</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>164086.76999999999</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="6">
         <v>4293.5</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="15">
         <v>20454.28</v>
       </c>
-      <c r="G2" s="20">
-        <v>3166.64</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="G2" s="15">
+        <v>3166.64</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="12">
@@ -781,97 +593,99 @@
       <c r="C3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="14">
         <v>17884.3</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="6">
         <v>8947.7199999999993</v>
       </c>
-      <c r="F3" s="20">
-        <v>3166.64</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="20">
-        <v>3166.64</v>
-      </c>
-      <c r="I3" s="24">
+      <c r="F3" s="15">
+        <v>3166.64</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="15">
+        <v>3166.64</v>
+      </c>
+      <c r="I3" s="6">
         <v>1798.55</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="22">
+      <c r="A4" s="4">
         <v>155924050006</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="5">
         <v>45323</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>8318.17</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="6">
         <v>1798.55</v>
       </c>
-      <c r="F4" s="20">
-        <v>3166.64</v>
-      </c>
-      <c r="G4" s="20">
-        <v>3166.64</v>
-      </c>
+      <c r="F4" s="15">
+        <v>3166.64</v>
+      </c>
+      <c r="G4" s="15">
+        <v>3166.64</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="22">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
         <v>155924050006</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="5">
         <v>45384</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="14">
         <v>4520.6400000000003</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="6">
         <v>8898.1200000000008</v>
       </c>
-      <c r="F5" s="20">
-        <v>3166.64</v>
-      </c>
-      <c r="H5" s="20">
-        <v>3166.64</v>
-      </c>
-      <c r="I5" s="24">
+      <c r="F5" s="15">
+        <v>3166.64</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="15">
+        <v>3166.64</v>
+      </c>
+      <c r="I5" s="6">
         <v>1798.55</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="22">
+      <c r="A6" s="4">
         <v>155924050006</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="5">
         <v>45323</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>723.11</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="6">
         <v>9153</v>
       </c>
-      <c r="F6" s="20">
-        <v>3166.64</v>
-      </c>
-      <c r="G6" s="20">
-        <v>3166.64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E7" s="24"/>
+      <c r="F6" s="15">
+        <v>3166.64</v>
+      </c>
+      <c r="G6" s="15">
+        <v>3166.64</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
